--- a/medicine/Enfance/Évariste_Confus/Évariste_Confus.xlsx
+++ b/medicine/Enfance/Évariste_Confus/Évariste_Confus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89variste_Confus</t>
+          <t>Évariste_Confus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Evariste Confus est la première série personnelle de Jo-El Azara. Parue dans Tintin à partir de 1963, elle est composée de 21 récits complets.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89variste_Confus</t>
+          <t>Évariste_Confus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jo-El Azara a déjà 10 ans d’expérience lorsqu’il créé sa première série. Il a jusqu’à présent travaillé pour Willy Wandersteen en 1953 et est entré en 1954 au Studio Hergé puis a collaboré au Journal Tintin pour diverses illustrations.
 Cette année 1963 est donc un cap important pour lui puisqu’il va lancer simultanément deux séries : Mayflower dans Pilote et Evariste Confus dans Tintin, à chaque fois sous le format du récit complet et sous le signe de l'humour. Dans le même temps, il livre également quelques histoires de Bonnedague pour Record. La chose est rendue possible puisque les éditions Dargaud sont clientes du Lombard et diffusent très largement Tintin en France. Enfin Record est une création commune entre Bayard Presse et Dargaud. Les clauses d’exclusivité sur lesquelles les maisons de l’époque étaient assez chatouilleuses n’avaient donc pas lieu d’être.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89variste_Confus</t>
+          <t>Évariste_Confus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>L’histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au physique Evariste ressemble à une autre création ultérieure d’Azara : Monsieur Chapomou. Le premier est doté d’un chapeau melon tandis que l’autre possède un chapeau claque, au moins au départ. Mais les similitudes s’arrêtent là car les aventures du personnage de Pilote sont sans paroles. 
 Evariste Confus est détective d’assurances à La Paimpolaise. Ses missions l’entrainent dans la principauté du Frittland où il va rencontrer le roi Willi XIV.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89variste_Confus</t>
+          <t>Évariste_Confus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,17 +594,89 @@
           <t>Parutions dans Tintin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes ces histoires font 4 planches sauf indication contraire. Le premier nombre est le quantième de l'histoire, le suivant correspond au n° de l'année. C'est la numérotation belge qui a été retenue ici dans la mesure où toutes les aventures d'Evariste Confus n'ont pas été reprises intégralement dans la version française. Toutes ces planches sont inédites en album
-1963
-1. 37           Bretelles du soir… désespoir                            2 planches
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Évariste_Confus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89variste_Confus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parutions dans Tintin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 37           Bretelles du soir… désespoir                            2 planches
 2. 41           Un fauteuil à la plage !                                       2 planches
 3. 43           Canotage                                                           2 planches
 4. 45           Fais–moi cygne !               
 5. 49           Fantasmagories botaniques        
-1964
-6. 2             Salon de l’Otto Rhino     
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Évariste_Confus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89variste_Confus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parutions dans Tintin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6. 2             Salon de l’Otto Rhino     
 7. 6             Équitation            
 8. 11           « Oui, skis à gogo ! »          
 9. 16           Le Barbi–yé–yé de Sévi–yé–yé                 
@@ -600,12 +688,82 @@
 15.       45           Fritt and Chips  
 16.       48           Portééé… zarmes !           
 17.       52           Chez les patapons           
-1965
-18.       4             Gloire au Trého                 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Évariste_Confus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89variste_Confus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parutions dans Tintin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18.       4             Gloire au Trého                 
 19.       8             Les maux croisés              
 20.       13           En un clin… deuil               
-1977
-21.       26           Les vacances, c’est l’évasion ... 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Évariste_Confus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89variste_Confus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Parutions dans Tintin</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21.       26           Les vacances, c’est l’évasion ... 
 </t>
         </is>
       </c>
